--- a/data.xlsx
+++ b/data.xlsx
@@ -1,23 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="hadoop" sheetId="2" r:id="rId1"/>
+    <sheet name="mpi" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">      数据量
+  精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      精度
+  进程数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么随着精度的改变，I/O时间基本不变：猜想可能是文本IO时间要大于网络I/O时间，总的I/O时间主要是开始是读取文本内容，而之后的网络I/O时间只发送少量数据序号，以及少量中间计算量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000个点，一维坐标点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      数据量
+  进程数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/O时间随着数据量的增大而增大，但是与集群规模关系比较少，与算法相关，不同算法可能会有很大的差异。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="177" formatCode="000000"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +86,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -42,23 +122,3049 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>阈值精度：1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>hadoop!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hadoop!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1398.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1888.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1909.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2377.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3351.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>阈值精度：0.1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>hadoop!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hadoop!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8117.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10951.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15527.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28090.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49565.599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>阈值精度：0.01</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>hadoop!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>hadoop!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20495.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74050.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141924.79999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="70981120"/>
+        <c:axId val="70982656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="70981120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(X100000)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.75593354698066062"/>
+              <c:y val="0.77314806237455613"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70982656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70982656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>所用时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.15744313210848643"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70981120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7452792157886341"/>
+          <c:y val="0.20775736366287548"/>
+          <c:w val="0.23998781920215775"/>
+          <c:h val="0.20607308701796892"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>阈值精度：1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$B$21:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>517.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>514.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>阈值精度：0.1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$C$21:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>513.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>519.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>522.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>508.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>517.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>阈值精度：0.01</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$D$21:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>556.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>539.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>522.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>518.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>阈值精度：0.001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$E$21:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>522.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>529.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>546.20000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>阈值精度：0.0001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$F$21:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>520.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>522.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>531.90000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>527.20000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>阈值精度：0.00001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$21:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$G$21:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>521.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>523.59999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="83939328"/>
+        <c:axId val="83940864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83939328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83940864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83940864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83939328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>阈值精度：1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$B$38:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>阈值精度：0.1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$C$38:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>阈值精度：0.01</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$D$38:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>249.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>阈值精度：0.001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$E$38:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>474.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.599999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>阈值精度：0.0001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>阈值精度：0.00001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$G$38:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1132.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>329.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="84311040"/>
+        <c:axId val="149029632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84311040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149029632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149029632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84311040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>阈值精度：1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$B$57:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>525.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>526.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>519.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>514.80000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>阈值精度：0.1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$C$57:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>553.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>541.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>532.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>513.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520.29999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>阈值精度：0.01</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$D$57:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>806.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>633.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>602.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>554.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>534.29999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>阈值精度：0.001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$E$57:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>997.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>589.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>576.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>阈值精度：0.0001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$F$57:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1244.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>828.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>713.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>573.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>阈值精度：0.00001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mpi!$G$57:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1159.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>859.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>677.90000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595.59999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="87086208"/>
+        <c:axId val="149045632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="87086208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="149045632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="149045632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87086208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>513.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1483.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2051.2999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>548.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1082.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>127.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>508.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1008.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2066.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>519.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1016.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2091.2000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>129.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>745.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1090.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="173427712"/>
+        <c:axId val="173597440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="173427712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173597440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173597440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173427712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$39:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$41:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$39:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$42:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$39:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$43:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$39:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$44:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$B$39:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$45:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="239017344"/>
+        <c:axId val="239056000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="239017344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="239056000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="239056000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="239017344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$41:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>20万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$C$41:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>40万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$D$41:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>80万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$E$41:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>160万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$F$41:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>161.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="305123712"/>
+        <c:axId val="305126016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="305123712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="305126016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="305126016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="305123712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +3449,2341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>13984</v>
+      </c>
+      <c r="C2">
+        <v>18889</v>
+      </c>
+      <c r="D2">
+        <v>19093</v>
+      </c>
+      <c r="E2">
+        <v>23772</v>
+      </c>
+      <c r="F2">
+        <v>33519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>81174</v>
+      </c>
+      <c r="C3">
+        <v>109519</v>
+      </c>
+      <c r="D3">
+        <v>155278</v>
+      </c>
+      <c r="E3">
+        <v>280903</v>
+      </c>
+      <c r="F3">
+        <v>495656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0.01</v>
+      </c>
+      <c r="B4">
+        <v>204956</v>
+      </c>
+      <c r="C4">
+        <v>252810</v>
+      </c>
+      <c r="D4">
+        <v>428600</v>
+      </c>
+      <c r="E4">
+        <v>740504</v>
+      </c>
+      <c r="F4">
+        <v>1419248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1398.4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1888.9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1909.3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2377.1999999999998</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3351.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8117.4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10951.9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>15527.8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>28090.3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>49565.599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B9" s="4">
+        <v>20495.599999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>25281</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42860</v>
+      </c>
+      <c r="E9" s="4">
+        <v>74050.399999999994</v>
+      </c>
+      <c r="F9" s="4">
+        <v>141924.79999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>200000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>800000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1398.4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1888.9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1909.3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2377.1999999999998</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3351.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8117.4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10951.9</v>
+      </c>
+      <c r="D16" s="4">
+        <v>15527.8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>28090.3</v>
+      </c>
+      <c r="F16" s="4">
+        <v>49565.599999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B17" s="4">
+        <v>20495.599999999999</v>
+      </c>
+      <c r="C17" s="4">
+        <v>25281</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42860</v>
+      </c>
+      <c r="E17" s="4">
+        <v>74050.399999999994</v>
+      </c>
+      <c r="F17" s="4">
+        <v>141924.79999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C2" s="5">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2+C2</f>
+        <v>0.52570000000000006</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <f>E2+F2</f>
+        <v>0.55369999999999997</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.24990000000000001</v>
+      </c>
+      <c r="J2" s="5">
+        <f>H2+I2</f>
+        <v>0.80649999999999999</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="M2" s="5">
+        <f>K2+L2</f>
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="P2" s="5">
+        <f>N2+O2</f>
+        <v>1.2446999999999999</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1.1324000000000001</v>
+      </c>
+      <c r="S2" s="5">
+        <f>Q2+R2</f>
+        <v>1.6539999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3+C3</f>
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <f>E3+F3</f>
+        <v>0.5413</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="J3" s="5">
+        <f>H3+I3</f>
+        <v>0.63319999999999999</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="M3" s="5">
+        <f>K3+L3</f>
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.52290000000000003</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="P3" s="5">
+        <f>N3+O3</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.6482</v>
+      </c>
+      <c r="S3" s="5">
+        <f>Q3+R3</f>
+        <v>1.1592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.52039999999999997</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D4" s="5">
+        <f>B4+C4</f>
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.52229999999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.04E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <f>E4+F4</f>
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.5393</v>
+      </c>
+      <c r="I4" s="5">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="J4" s="5">
+        <f>H4+I4</f>
+        <v>0.60209999999999997</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="M4" s="5">
+        <f>K4+L4</f>
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.18190000000000001</v>
+      </c>
+      <c r="P4" s="5">
+        <f>N4+O4</f>
+        <v>0.71379999999999999</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="S4" s="5">
+        <f>Q4+R4</f>
+        <v>0.85980000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D5" s="5">
+        <f>B5+C5</f>
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.50839999999999996</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.3E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <f>E5+F5</f>
+        <v>0.51369999999999993</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="I5" s="5">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <f>H5+I5</f>
+        <v>0.55469999999999997</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.52929999999999999</v>
+      </c>
+      <c r="L5" s="5">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="M5" s="5">
+        <f>K5+L5</f>
+        <v>0.58940000000000003</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="O5" s="5">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="P5" s="5">
+        <f>N5+O5</f>
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="S5" s="5">
+        <f>Q5+R5</f>
+        <v>0.67790000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.5141</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D6" s="5">
+        <f>B6+C6</f>
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <f>E6+F6</f>
+        <v>0.52029999999999998</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.5181</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <f>H6+I6</f>
+        <v>0.5343</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.54620000000000002</v>
+      </c>
+      <c r="L6" s="5">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="M6" s="5">
+        <f>K6+L6</f>
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.5272</v>
+      </c>
+      <c r="O6" s="5">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="P6" s="5">
+        <f>N6+O6</f>
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="R6" s="5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S6" s="5">
+        <f>Q6+R6</f>
+        <v>0.59559999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>516</v>
+      </c>
+      <c r="C11" s="9">
+        <v>9.7000000000000011</v>
+      </c>
+      <c r="D11" s="9">
+        <v>525.70000000000005</v>
+      </c>
+      <c r="E11" s="9">
+        <v>513.29999999999995</v>
+      </c>
+      <c r="F11" s="9">
+        <v>40.4</v>
+      </c>
+      <c r="G11" s="9">
+        <v>553.69999999999993</v>
+      </c>
+      <c r="H11" s="9">
+        <v>556.6</v>
+      </c>
+      <c r="I11" s="9">
+        <v>249.9</v>
+      </c>
+      <c r="J11" s="9">
+        <v>806.5</v>
+      </c>
+      <c r="K11" s="9">
+        <v>522.5</v>
+      </c>
+      <c r="L11" s="9">
+        <v>474.6</v>
+      </c>
+      <c r="M11" s="9">
+        <v>997.1</v>
+      </c>
+      <c r="N11" s="9">
+        <v>520.70000000000005</v>
+      </c>
+      <c r="O11" s="9">
+        <v>724</v>
+      </c>
+      <c r="P11" s="9">
+        <v>1244.6999999999998</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>521.59999999999991</v>
+      </c>
+      <c r="R11" s="9">
+        <v>1132.4000000000001</v>
+      </c>
+      <c r="S11" s="9">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9">
+        <v>521.59999999999991</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>526.4</v>
+      </c>
+      <c r="E12" s="9">
+        <v>519.59999999999991</v>
+      </c>
+      <c r="F12" s="9">
+        <v>21.7</v>
+      </c>
+      <c r="G12" s="9">
+        <v>541.29999999999995</v>
+      </c>
+      <c r="H12" s="9">
+        <v>508</v>
+      </c>
+      <c r="I12" s="9">
+        <v>125.2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>633.19999999999993</v>
+      </c>
+      <c r="K12" s="9">
+        <v>540</v>
+      </c>
+      <c r="L12" s="9">
+        <v>237</v>
+      </c>
+      <c r="M12" s="9">
+        <v>777</v>
+      </c>
+      <c r="N12" s="9">
+        <v>522.9</v>
+      </c>
+      <c r="O12" s="9">
+        <v>305.09999999999997</v>
+      </c>
+      <c r="P12" s="9">
+        <v>828.00000000000011</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>511</v>
+      </c>
+      <c r="R12" s="9">
+        <v>648.20000000000005</v>
+      </c>
+      <c r="S12" s="9">
+        <v>1159.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9">
+        <v>520.4</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9">
+        <v>523.4</v>
+      </c>
+      <c r="E13" s="9">
+        <v>522.29999999999995</v>
+      </c>
+      <c r="F13" s="9">
+        <v>10.4</v>
+      </c>
+      <c r="G13" s="9">
+        <v>532.69999999999993</v>
+      </c>
+      <c r="H13" s="9">
+        <v>539.29999999999995</v>
+      </c>
+      <c r="I13" s="9">
+        <v>62.8</v>
+      </c>
+      <c r="J13" s="9">
+        <v>602.1</v>
+      </c>
+      <c r="K13" s="9">
+        <v>523</v>
+      </c>
+      <c r="L13" s="9">
+        <v>119</v>
+      </c>
+      <c r="M13" s="9">
+        <v>642</v>
+      </c>
+      <c r="N13" s="9">
+        <v>531.90000000000009</v>
+      </c>
+      <c r="O13" s="9">
+        <v>181.9</v>
+      </c>
+      <c r="P13" s="9">
+        <v>713.8</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>530.1</v>
+      </c>
+      <c r="R13" s="9">
+        <v>329.7</v>
+      </c>
+      <c r="S13" s="9">
+        <v>859.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9">
+        <v>517.80000000000007</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="D14" s="9">
+        <v>519.1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>508.4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="G14" s="9">
+        <v>513.69999999999993</v>
+      </c>
+      <c r="H14" s="9">
+        <v>522.59999999999991</v>
+      </c>
+      <c r="I14" s="9">
+        <v>32.099999999999994</v>
+      </c>
+      <c r="J14" s="9">
+        <v>554.69999999999993</v>
+      </c>
+      <c r="K14" s="9">
+        <v>529.29999999999995</v>
+      </c>
+      <c r="L14" s="9">
+        <v>60.1</v>
+      </c>
+      <c r="M14" s="9">
+        <v>589.40000000000009</v>
+      </c>
+      <c r="N14" s="9">
+        <v>507</v>
+      </c>
+      <c r="O14" s="9">
+        <v>93.899999999999991</v>
+      </c>
+      <c r="P14" s="9">
+        <v>600.9</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>520.80000000000007</v>
+      </c>
+      <c r="R14" s="9">
+        <v>157.1</v>
+      </c>
+      <c r="S14" s="9">
+        <v>677.90000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>514.1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="9">
+        <v>514.80000000000007</v>
+      </c>
+      <c r="E15" s="9">
+        <v>517.5</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="G15" s="9">
+        <v>520.29999999999995</v>
+      </c>
+      <c r="H15" s="9">
+        <v>518.1</v>
+      </c>
+      <c r="I15" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="J15" s="9">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="K15" s="9">
+        <v>546.20000000000005</v>
+      </c>
+      <c r="L15" s="9">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="M15" s="9">
+        <v>576.79999999999995</v>
+      </c>
+      <c r="N15" s="9">
+        <v>527.20000000000005</v>
+      </c>
+      <c r="O15" s="9">
+        <v>46.6</v>
+      </c>
+      <c r="P15" s="9">
+        <v>573.79999999999995</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>523.59999999999991</v>
+      </c>
+      <c r="R15" s="9">
+        <v>72</v>
+      </c>
+      <c r="S15" s="9">
+        <v>595.59999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="9">
+        <v>516</v>
+      </c>
+      <c r="C21" s="9">
+        <v>513.29999999999995</v>
+      </c>
+      <c r="D21" s="9">
+        <v>556.6</v>
+      </c>
+      <c r="E21" s="9">
+        <v>522.5</v>
+      </c>
+      <c r="F21" s="9">
+        <v>520.70000000000005</v>
+      </c>
+      <c r="G21" s="9">
+        <v>521.59999999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="9">
+        <v>521.59999999999991</v>
+      </c>
+      <c r="C22" s="9">
+        <v>519.59999999999991</v>
+      </c>
+      <c r="D22" s="9">
+        <v>508</v>
+      </c>
+      <c r="E22" s="9">
+        <v>540</v>
+      </c>
+      <c r="F22" s="9">
+        <v>522.9</v>
+      </c>
+      <c r="G22" s="9">
+        <v>511</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="9">
+        <v>520.4</v>
+      </c>
+      <c r="C23" s="9">
+        <v>522.29999999999995</v>
+      </c>
+      <c r="D23" s="9">
+        <v>539.29999999999995</v>
+      </c>
+      <c r="E23" s="9">
+        <v>523</v>
+      </c>
+      <c r="F23" s="9">
+        <v>531.90000000000009</v>
+      </c>
+      <c r="G23" s="9">
+        <v>530.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" s="9">
+        <v>517.80000000000007</v>
+      </c>
+      <c r="C24" s="9">
+        <v>508.4</v>
+      </c>
+      <c r="D24" s="9">
+        <v>522.59999999999991</v>
+      </c>
+      <c r="E24" s="9">
+        <v>529.29999999999995</v>
+      </c>
+      <c r="F24" s="9">
+        <v>507</v>
+      </c>
+      <c r="G24" s="9">
+        <v>520.80000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" s="9">
+        <v>514.1</v>
+      </c>
+      <c r="C25" s="9">
+        <v>517.5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>518.1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>546.20000000000005</v>
+      </c>
+      <c r="F25" s="9">
+        <v>527.20000000000005</v>
+      </c>
+      <c r="G25" s="9">
+        <v>523.59999999999991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="F36" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="9">
+        <v>9.7000000000000011</v>
+      </c>
+      <c r="C38" s="9">
+        <v>40.4</v>
+      </c>
+      <c r="D38" s="9">
+        <v>249.9</v>
+      </c>
+      <c r="E38" s="9">
+        <v>474.6</v>
+      </c>
+      <c r="F38" s="9">
+        <v>724</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1132.4000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="C39" s="9">
+        <v>21.7</v>
+      </c>
+      <c r="D39" s="9">
+        <v>125.2</v>
+      </c>
+      <c r="E39" s="9">
+        <v>237</v>
+      </c>
+      <c r="F39" s="9">
+        <v>305.09999999999997</v>
+      </c>
+      <c r="G39" s="9">
+        <v>648.20000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" s="9">
+        <v>3</v>
+      </c>
+      <c r="C40" s="9">
+        <v>10.4</v>
+      </c>
+      <c r="D40" s="9">
+        <v>62.8</v>
+      </c>
+      <c r="E40" s="9">
+        <v>119</v>
+      </c>
+      <c r="F40" s="9">
+        <v>181.9</v>
+      </c>
+      <c r="G40" s="9">
+        <v>329.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="C41" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="D41" s="9">
+        <v>32.099999999999994</v>
+      </c>
+      <c r="E41" s="9">
+        <v>60.1</v>
+      </c>
+      <c r="F41" s="9">
+        <v>93.899999999999991</v>
+      </c>
+      <c r="G41" s="9">
+        <v>157.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="C42" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="D42" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="E42" s="9">
+        <v>30.599999999999998</v>
+      </c>
+      <c r="F42" s="9">
+        <v>46.6</v>
+      </c>
+      <c r="G42" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="14">
+        <v>1</v>
+      </c>
+      <c r="C55" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D55" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="E55" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="F55" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="G55" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="13"/>
+      <c r="B56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="9">
+        <v>525.70000000000005</v>
+      </c>
+      <c r="C57" s="9">
+        <v>553.69999999999993</v>
+      </c>
+      <c r="D57" s="9">
+        <v>806.5</v>
+      </c>
+      <c r="E57" s="9">
+        <v>997.1</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1244.6999999999998</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" s="9">
+        <v>526.4</v>
+      </c>
+      <c r="C58" s="9">
+        <v>541.29999999999995</v>
+      </c>
+      <c r="D58" s="9">
+        <v>633.19999999999993</v>
+      </c>
+      <c r="E58" s="9">
+        <v>777</v>
+      </c>
+      <c r="F58" s="9">
+        <v>828.00000000000011</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1159.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" s="9">
+        <v>523.4</v>
+      </c>
+      <c r="C59" s="9">
+        <v>532.69999999999993</v>
+      </c>
+      <c r="D59" s="9">
+        <v>602.1</v>
+      </c>
+      <c r="E59" s="9">
+        <v>642</v>
+      </c>
+      <c r="F59" s="9">
+        <v>713.8</v>
+      </c>
+      <c r="G59" s="9">
+        <v>859.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60" s="9">
+        <v>519.1</v>
+      </c>
+      <c r="C60" s="9">
+        <v>513.69999999999993</v>
+      </c>
+      <c r="D60" s="9">
+        <v>554.69999999999993</v>
+      </c>
+      <c r="E60" s="9">
+        <v>589.40000000000009</v>
+      </c>
+      <c r="F60" s="9">
+        <v>600.9</v>
+      </c>
+      <c r="G60" s="9">
+        <v>677.90000000000009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>16</v>
+      </c>
+      <c r="B61" s="9">
+        <v>514.80000000000007</v>
+      </c>
+      <c r="C61" s="9">
+        <v>520.29999999999995</v>
+      </c>
+      <c r="D61" s="9">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="E61" s="9">
+        <v>576.79999999999995</v>
+      </c>
+      <c r="F61" s="9">
+        <v>573.79999999999995</v>
+      </c>
+      <c r="G61" s="9">
+        <v>595.59999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>100000</v>
+      </c>
+      <c r="D1">
+        <v>200000</v>
+      </c>
+      <c r="F1">
+        <v>400000</v>
+      </c>
+      <c r="H1">
+        <v>800000</v>
+      </c>
+      <c r="J1">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1288</v>
+      </c>
+      <c r="C3">
+        <v>1.03E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="E3">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.5131</v>
+      </c>
+      <c r="G3">
+        <v>4.07E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.4832000000000001</v>
+      </c>
+      <c r="I3">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.0512999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.1618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="C4">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="E4">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.54830000000000001</v>
+      </c>
+      <c r="G4">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.0823</v>
+      </c>
+      <c r="I4">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="J4">
+        <v>2.214</v>
+      </c>
+      <c r="K4">
+        <v>8.1299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="C5">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="E5">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="F5">
+        <v>0.50880000000000003</v>
+      </c>
+      <c r="G5">
+        <v>1.03E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.0084</v>
+      </c>
+      <c r="I5">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.0665</v>
+      </c>
+      <c r="K5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.1285</v>
+      </c>
+      <c r="C6">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.2571</v>
+      </c>
+      <c r="E6">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="G6">
+        <v>5.3E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.0165</v>
+      </c>
+      <c r="I6">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J6">
+        <v>2.0912000000000002</v>
+      </c>
+      <c r="K6">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="C7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D7">
+        <v>0.25519999999999998</v>
+      </c>
+      <c r="E7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="G7">
+        <v>2.8E-3</v>
+      </c>
+      <c r="H7">
+        <v>1.0909</v>
+      </c>
+      <c r="I7">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="J7">
+        <v>2.8370000000000002</v>
+      </c>
+      <c r="K7">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>200000</v>
+      </c>
+      <c r="F10">
+        <v>400000</v>
+      </c>
+      <c r="H10">
+        <v>800000</v>
+      </c>
+      <c r="J10">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="C12">
+        <v>10.3</v>
+      </c>
+      <c r="D12">
+        <v>256.79999999999995</v>
+      </c>
+      <c r="E12">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="F12">
+        <v>513.1</v>
+      </c>
+      <c r="G12">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="H12">
+        <v>1483.2</v>
+      </c>
+      <c r="I12">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J12">
+        <v>2051.2999999999997</v>
+      </c>
+      <c r="K12">
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>128.89999999999998</v>
+      </c>
+      <c r="C13">
+        <v>5.2</v>
+      </c>
+      <c r="D13">
+        <v>257.40000000000003</v>
+      </c>
+      <c r="E13">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="F13">
+        <v>548.29999999999995</v>
+      </c>
+      <c r="G13">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="H13">
+        <v>1082.3</v>
+      </c>
+      <c r="I13">
+        <v>40.4</v>
+      </c>
+      <c r="J13">
+        <v>2214</v>
+      </c>
+      <c r="K13">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>127.7</v>
+      </c>
+      <c r="C14">
+        <v>2.6</v>
+      </c>
+      <c r="D14">
+        <v>264.7</v>
+      </c>
+      <c r="E14">
+        <v>5.2</v>
+      </c>
+      <c r="F14">
+        <v>508.8</v>
+      </c>
+      <c r="G14">
+        <v>10.3</v>
+      </c>
+      <c r="H14">
+        <v>1008.4</v>
+      </c>
+      <c r="I14">
+        <v>20.400000000000002</v>
+      </c>
+      <c r="J14">
+        <v>2066.5</v>
+      </c>
+      <c r="K14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>128.5</v>
+      </c>
+      <c r="C15">
+        <v>1.4</v>
+      </c>
+      <c r="D15">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="E15">
+        <v>2.7</v>
+      </c>
+      <c r="F15">
+        <v>519.80000000000007</v>
+      </c>
+      <c r="G15">
+        <v>5.3</v>
+      </c>
+      <c r="H15">
+        <v>1016.5</v>
+      </c>
+      <c r="I15">
+        <v>10.4</v>
+      </c>
+      <c r="J15">
+        <v>2091.2000000000003</v>
+      </c>
+      <c r="K15">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C16">
+        <v>0.8</v>
+      </c>
+      <c r="D16">
+        <v>255.2</v>
+      </c>
+      <c r="E16">
+        <v>1.5</v>
+      </c>
+      <c r="F16">
+        <v>745.7</v>
+      </c>
+      <c r="G16">
+        <v>2.8</v>
+      </c>
+      <c r="H16">
+        <v>1090.9000000000001</v>
+      </c>
+      <c r="I16">
+        <v>5.4</v>
+      </c>
+      <c r="J16">
+        <v>2837</v>
+      </c>
+      <c r="K16">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>100000</v>
+      </c>
+      <c r="C23">
+        <v>200000</v>
+      </c>
+      <c r="D23">
+        <v>400000</v>
+      </c>
+      <c r="E23">
+        <v>800000</v>
+      </c>
+      <c r="F23">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="C25">
+        <v>256.79999999999995</v>
+      </c>
+      <c r="D25">
+        <v>513.1</v>
+      </c>
+      <c r="E25">
+        <v>1483.2</v>
+      </c>
+      <c r="F25">
+        <v>2051.2999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>128.89999999999998</v>
+      </c>
+      <c r="C26">
+        <v>257.40000000000003</v>
+      </c>
+      <c r="D26">
+        <v>548.29999999999995</v>
+      </c>
+      <c r="E26">
+        <v>1082.3</v>
+      </c>
+      <c r="F26">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>127.7</v>
+      </c>
+      <c r="C27">
+        <v>264.7</v>
+      </c>
+      <c r="D27">
+        <v>508.8</v>
+      </c>
+      <c r="E27">
+        <v>1008.4</v>
+      </c>
+      <c r="F27">
+        <v>2066.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>128.5</v>
+      </c>
+      <c r="C28">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="D28">
+        <v>519.80000000000007</v>
+      </c>
+      <c r="E28">
+        <v>1016.5</v>
+      </c>
+      <c r="F28">
+        <v>2091.2000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>129.20000000000002</v>
+      </c>
+      <c r="C29">
+        <v>255.2</v>
+      </c>
+      <c r="D29">
+        <v>745.7</v>
+      </c>
+      <c r="E29">
+        <v>1090.9000000000001</v>
+      </c>
+      <c r="F29">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>100000</v>
+      </c>
+      <c r="C39">
+        <v>200000</v>
+      </c>
+      <c r="D39">
+        <v>400000</v>
+      </c>
+      <c r="E39">
+        <v>800000</v>
+      </c>
+      <c r="F39">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>10.3</v>
+      </c>
+      <c r="C41">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="D41">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E41">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="F41">
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>5.2</v>
+      </c>
+      <c r="C42">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="D42">
+        <v>20.299999999999997</v>
+      </c>
+      <c r="E42">
+        <v>40.4</v>
+      </c>
+      <c r="F42">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>2.6</v>
+      </c>
+      <c r="C43">
+        <v>5.2</v>
+      </c>
+      <c r="D43">
+        <v>10.3</v>
+      </c>
+      <c r="E43">
+        <v>20.400000000000002</v>
+      </c>
+      <c r="F43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>1.4</v>
+      </c>
+      <c r="C44">
+        <v>2.7</v>
+      </c>
+      <c r="D44">
+        <v>5.3</v>
+      </c>
+      <c r="E44">
+        <v>10.4</v>
+      </c>
+      <c r="F44">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>0.8</v>
+      </c>
+      <c r="C45">
+        <v>1.5</v>
+      </c>
+      <c r="D45">
+        <v>2.8</v>
+      </c>
+      <c r="E45">
+        <v>5.4</v>
+      </c>
+      <c r="F45">
+        <v>10.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A32:H34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="hadoop" sheetId="2" r:id="rId1"/>
-    <sheet name="mpi" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Hadoop性能分析" sheetId="2" r:id="rId1"/>
+    <sheet name="MPI性能分析表1" sheetId="4" r:id="rId2"/>
+    <sheet name="MPI性能分析表2" sheetId="6" r:id="rId3"/>
+    <sheet name="Hadoop与MPI计算时间比较" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t xml:space="preserve">      数据量
   精度</t>
@@ -68,17 +69,83 @@
     <t>I/O时间随着数据量的增大而增大，但是与集群规模关系比较少，与算法相关，不同算法可能会有很大的差异。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>注：相同集群规模，阈值精度0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop与MPI计算时间与数据规模关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop/MPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop与MPI计算时间与计算精度关系表规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：相同规模集群，400000规模数据量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      数据规模
+  进程数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI I/O时间与数据规模关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI 计算时间与数据规模关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI I/O时间与集群规模关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI 计算时间与集群精度（规模）关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI 总时间与集群规模关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="000000"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +155,32 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -197,9 +290,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -208,36 +301,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -267,9 +380,50 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>Hadoop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
+              <a:t> 计算时间与数据规模关系图</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25871086556169431"/>
+          <c:y val="6.8376068376068383E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18037035425820394"/>
+          <c:y val="0.20551764362787986"/>
+          <c:w val="0.54526490818481943"/>
+          <c:h val="0.69172203901862694"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -281,31 +435,31 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>hadoop!$B$6:$F$6</c:f>
+              <c:f>Hadoop性能分析!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hadoop!$B$7:$F$7</c:f>
+              <c:f>Hadoop性能分析!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -337,31 +491,31 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>hadoop!$B$6:$F$6</c:f>
+              <c:f>Hadoop性能分析!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hadoop!$B$8:$F$8</c:f>
+              <c:f>Hadoop性能分析!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -393,31 +547,31 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>hadoop!$B$6:$F$6</c:f>
+              <c:f>Hadoop性能分析!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>hadoop!$B$9:$F$9</c:f>
+              <c:f>Hadoop性能分析!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -451,11 +605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70981120"/>
-        <c:axId val="70982656"/>
+        <c:axId val="98684928"/>
+        <c:axId val="98686848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70981120"/>
+        <c:axId val="98684928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,15 +626,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>数据量</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(X100000)</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t> </a:t>
+                  <a:t>数据规模</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -489,8 +635,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.75593354698066062"/>
-              <c:y val="0.77314806237455613"/>
+              <c:x val="0.76330002948526465"/>
+              <c:y val="0.85292026530871679"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -499,7 +645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70982656"/>
+        <c:crossAx val="98686848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -507,7 +653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70982656"/>
+        <c:axId val="98686848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +671,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>所用时间</a:t>
+                  <a:t>时间</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
@@ -549,7 +695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70981120"/>
+        <c:crossAx val="98684928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -580,6 +726,768 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>Hadoop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>与</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间与数据规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18064588801399828"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hadoop</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop与MPI计算时间比较!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop与MPI计算时间比较!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8117.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10951.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15527.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28090.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49565.599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MPI</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop与MPI计算时间比较!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop与MPI计算时间比较!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>728.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1096.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2847.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="104589184"/>
+        <c:axId val="104590720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="104589184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.7859877515310586"/>
+              <c:y val="0.87962962962962965"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104590720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="104590720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104589184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout>
+              <c:manualLayout>
+                <c:xMode val="edge"/>
+                <c:yMode val="edge"/>
+                <c:x val="2.2222222222222223E-2"/>
+                <c:y val="9.3067220764071146E-2"/>
+              </c:manualLayout>
+            </c:layout>
+            <c:tx>
+              <c:rich>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US"/>
+                    <a:t>时间</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN"/>
+                    <a:t>(X1000ms)</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                </a:p>
+              </c:rich>
+            </c:tx>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
+              <a:t>Hadoop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>与</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
+              <a:t>MPI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间比率图</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14718285214348206"/>
+          <c:y val="0.16531277340332459"/>
+          <c:w val="0.57733048993875768"/>
+          <c:h val="0.62611475648877224"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hadoop/MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop与MPI计算时间比较!$B$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop与MPI计算时间比较!$B$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7088189588189584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.843936190659235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.217106494478742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.62760055478503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="180266112"/>
+        <c:axId val="180267648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="180266112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>计算精度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.78562576552930896"/>
+              <c:y val="0.81481481481481477"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180267648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="180267648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>比率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5000000000000001E-2"/>
+              <c:y val="7.8636264216972854E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180266112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
+              <a:t>Hadoop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>与</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
+              <a:t>MPI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间比率图</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26984711286089241"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hadoop/MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop与MPI计算时间比较!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop与MPI计算时间比较!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>62.441538461538457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.664199454616281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.314756348661632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.622822220195197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.406096361848576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="180856704"/>
+        <c:axId val="180858240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="180856704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.75054943132108498"/>
+              <c:y val="0.84722222222222221"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180858240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="180858240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>比率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.16196959755030618"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180856704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -594,9 +1502,42 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>Hadoop </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间与计算精度关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17514129483814522"/>
+          <c:y val="0.13473388743073783"/>
+          <c:w val="0.47627537182852142"/>
+          <c:h val="0.73076771653543304"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -604,52 +1545,40 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>阈值精度：1</c:v>
+            <c:v>数据规模：100000</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$21:$A$25</c:f>
+              <c:f>Hadoop性能分析!$A$7:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$B$21:$B$25</c:f>
+              <c:f>Hadoop性能分析!$B$7:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>521.59999999999991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>520.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>517.80000000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>514.1</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1398.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8117.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20495.599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,52 +1589,40 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>阈值精度：0.1</c:v>
+            <c:v>数据规模：200000</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$21:$A$25</c:f>
+              <c:f>Hadoop性能分析!$A$7:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$C$21:$C$25</c:f>
+              <c:f>Hadoop性能分析!$C$7:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>513.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>519.59999999999991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>522.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>508.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>517.5</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1888.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10951.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,52 +1633,40 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>阈值精度：0.01</c:v>
+            <c:v>数据规模：400000</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$21:$A$25</c:f>
+              <c:f>Hadoop性能分析!$A$7:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$D$21:$D$25</c:f>
+              <c:f>Hadoop性能分析!$D$7:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>556.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>508</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>539.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>522.59999999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>518.1</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1909.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15527.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,52 +1677,40 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>阈值精度：0.001</c:v>
+            <c:v>数据规模：800000</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$21:$A$25</c:f>
+              <c:f>Hadoop性能分析!$A$7:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$E$21:$E$25</c:f>
+              <c:f>Hadoop性能分析!$E$7:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>522.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>529.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>546.20000000000005</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2377.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28090.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74050.399999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,108 +1721,40 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>阈值精度：0.0001</c:v>
+            <c:v>数据规模：1600000</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$21:$A$25</c:f>
+              <c:f>Hadoop性能分析!$A$7:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$F$21:$F$25</c:f>
+              <c:f>Hadoop性能分析!$F$7:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>520.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>522.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>531.90000000000009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>527.20000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>阈值精度：0.00001</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>mpi!$A$21:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>mpi!$G$21:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>521.59999999999991</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>530.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>520.80000000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>523.59999999999991</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3351.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49565.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141924.79999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,21 +1771,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83939328"/>
-        <c:axId val="83940864"/>
+        <c:axId val="104743680"/>
+        <c:axId val="149111936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83939328"/>
+        <c:axId val="104743680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>计算精度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.7074455380577428"/>
+              <c:y val="0.83796296296296291"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83940864"/>
+        <c:crossAx val="149111936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -968,18 +1819,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83940864"/>
+        <c:axId val="149111936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83939328"/>
+        <c:crossAx val="104743680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1015,9 +1890,49 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI I/O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>时间与集群规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26984711286089241"/>
+          <c:y val="1.3888888888888888E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13844685039370078"/>
+          <c:y val="0.14399314668999708"/>
+          <c:w val="0.52559470691163601"/>
+          <c:h val="0.72613808690580339"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1029,7 +1944,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:f>MPI性能分析表1!$A$21:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1053,24 +1968,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$B$38:$B$42</c:f>
+              <c:f>MPI性能分析表1!$B$21:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.7000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>517.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>514.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,7 +2000,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:f>MPI性能分析表1!$A$21:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1109,24 +2024,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$C$38:$C$42</c:f>
+              <c:f>MPI性能分析表1!$C$21:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8</c:v>
+                  <c:v>513.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>519.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>522.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>508.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>517.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,7 +2056,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:f>MPI性能分析表1!$A$21:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1165,24 +2080,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$D$38:$D$42</c:f>
+              <c:f>MPI性能分析表1!$D$21:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>249.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>125.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.2</c:v>
+                  <c:v>556.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>539.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>522.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>518.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,7 +2112,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:f>MPI性能分析表1!$A$21:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1221,24 +2136,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$E$38:$E$42</c:f>
+              <c:f>MPI性能分析表1!$E$21:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>474.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.599999999999998</c:v>
+                  <c:v>522.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>529.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>546.20000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,7 +2168,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:f>MPI性能分析表1!$A$21:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1277,24 +2192,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$F$38:$F$42</c:f>
+              <c:f>MPI性能分析表1!$F$21:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>724</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>305.09999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>181.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93.899999999999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46.6</c:v>
+                  <c:v>520.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>522.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>531.90000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>527.20000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,7 +2224,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$38:$A$42</c:f>
+              <c:f>MPI性能分析表1!$A$21:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1333,24 +2248,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$G$38:$G$42</c:f>
+              <c:f>MPI性能分析表1!$G$21:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1132.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>648.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>329.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>157.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72</c:v>
+                  <c:v>521.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>523.59999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,21 +2282,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84311040"/>
-        <c:axId val="149029632"/>
+        <c:axId val="99010816"/>
+        <c:axId val="99020800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84311040"/>
+        <c:axId val="99010816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>进程数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.73707742782152219"/>
+              <c:y val="0.84722222222222221"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149029632"/>
+        <c:crossAx val="99020800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1389,25 +2330,65 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149029632"/>
+        <c:axId val="99020800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777779E-3"/>
+              <c:y val="8.9388305628463088E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84311040"/>
+        <c:crossAx val="99010816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68626377952755901"/>
+          <c:y val="0.24884842519685038"/>
+          <c:w val="0.29706955380577427"/>
+          <c:h val="0.50230314960629918"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1436,9 +2417,42 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间与集群规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15808573928258968"/>
+          <c:y val="0.18565981335666376"/>
+          <c:w val="0.51151137357830267"/>
+          <c:h val="0.67521216097987746"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1450,7 +2464,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1474,24 +2488,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$B$57:$B$61</c:f>
+              <c:f>MPI性能分析表1!$B$38:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>525.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>526.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>523.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>519.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>514.80000000000007</c:v>
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,7 +2520,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1530,24 +2544,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$C$57:$C$61</c:f>
+              <c:f>MPI性能分析表1!$C$38:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>553.69999999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>541.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>532.69999999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>513.69999999999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>520.29999999999995</c:v>
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,7 +2576,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1586,24 +2600,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$D$57:$D$61</c:f>
+              <c:f>MPI性能分析表1!$D$38:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>806.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>633.19999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>602.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>554.69999999999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>534.29999999999995</c:v>
+                  <c:v>249.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,7 +2632,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1642,24 +2656,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$E$57:$E$61</c:f>
+              <c:f>MPI性能分析表1!$E$38:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>997.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>642</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>589.40000000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>576.79999999999995</c:v>
+                  <c:v>474.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.599999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,7 +2688,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1698,24 +2712,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$F$57:$F$61</c:f>
+              <c:f>MPI性能分析表1!$F$38:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1244.6999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>828.00000000000011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>713.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>600.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>573.79999999999995</c:v>
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,7 +2744,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>mpi!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1754,24 +2768,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mpi!$G$57:$G$61</c:f>
+              <c:f>MPI性能分析表1!$G$38:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1654</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1159.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>859.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>677.90000000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>595.59999999999991</c:v>
+                  <c:v>1132.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>329.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1788,21 +2802,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87086208"/>
-        <c:axId val="149045632"/>
+        <c:axId val="98913664"/>
+        <c:axId val="98919552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87086208"/>
+        <c:axId val="98913664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>进程数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.78867475940507425"/>
+              <c:y val="0.85648148148148151"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149045632"/>
+        <c:crossAx val="98919552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1810,18 +2850,49 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149045632"/>
+        <c:axId val="98919552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3333333333333332E-3"/>
+              <c:y val="0.19818460192475937"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87086208"/>
+        <c:crossAx val="98913664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1857,9 +2928,42 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>总时间与集群规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13143285214348208"/>
+          <c:y val="0.12084499854184894"/>
+          <c:w val="0.53260870516185477"/>
+          <c:h val="0.73076771653543304"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1867,52 +2971,52 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1个进程</c:v>
+            <c:v>阈值精度：1</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$B$23:$F$23</c:f>
+              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$25:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>MPI性能分析表1!$B$57:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>128.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>513.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1483.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2051.2999999999997</c:v>
+                  <c:v>525.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>526.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>519.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>514.80000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,52 +3027,52 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2个进程</c:v>
+            <c:v>阈值精度：0.1</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$B$23:$F$23</c:f>
+              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$26:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>MPI性能分析表1!$C$57:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>128.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>257.40000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>548.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1082.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2214</c:v>
+                  <c:v>553.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>541.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>532.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>513.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520.29999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1979,52 +3083,52 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4个进程</c:v>
+            <c:v>阈值精度：0.01</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$B$23:$F$23</c:f>
+              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$27:$F$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>MPI性能分析表1!$D$57:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>127.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>264.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>508.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1008.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2066.5</c:v>
+                  <c:v>806.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>633.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>602.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>554.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>534.29999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,52 +3139,52 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>8个进程</c:v>
+            <c:v>阈值精度：0.001</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$B$23:$F$23</c:f>
+              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$28:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>MPI性能分析表1!$E$57:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>128.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>257.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>519.80000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1016.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2091.2000000000003</c:v>
+                  <c:v>997.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>589.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>576.79999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,52 +3195,108 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>16个进程</c:v>
+            <c:v>阈值精度：0.0001</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$B$23:$F$23</c:f>
+              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$29:$F$29</c:f>
+              <c:f>MPI性能分析表1!$F$57:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1244.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>828.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>713.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>573.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>阈值精度：0.00001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>129.20000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>255.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>745.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1090.9000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2837</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$G$57:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1159.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>859.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>677.90000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595.59999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2153,21 +3313,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173427712"/>
-        <c:axId val="173597440"/>
+        <c:axId val="99549952"/>
+        <c:axId val="99551488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173427712"/>
+        <c:axId val="99549952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>进程数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.68023031496062991"/>
+              <c:y val="0.84259259259259256"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173597440"/>
+        <c:crossAx val="99551488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2175,18 +3361,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173597440"/>
+        <c:axId val="99551488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173427712"/>
+        <c:crossAx val="99549952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2222,9 +3432,49 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间与计算精度关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24405555555555561"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15643285214348207"/>
+          <c:y val="0.14399314668999708"/>
+          <c:w val="0.64337270341207353"/>
+          <c:h val="0.74002697579469234"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2232,52 +3482,54 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1个进程</c:v>
+            <c:v>1个线程</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet6!$B$39:$F$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>MPI性能分析表1!$C$36:$G$37</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$41:$F$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>161.80000000000001</c:v>
+              <c:f>MPI性能分析表1!$B$38:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>474.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1132.4000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,52 +3540,54 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2个进程</c:v>
+            <c:v>2个线程</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet6!$B$39:$F$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>MPI性能分析表1!$C$36:$G$37</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$42:$F$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>81.3</c:v>
+              <c:f>MPI性能分析表1!$B$39:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>648.20000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,52 +3598,54 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>4个进程</c:v>
+            <c:v>4个线程</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet6!$B$39:$F$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>MPI性能分析表1!$C$36:$G$37</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$43:$F$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
+              <c:f>MPI性能分析表1!$B$40:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>329.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,52 +3656,54 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>8个进程</c:v>
+            <c:v>8个线程</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet6!$B$39:$F$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>MPI性能分析表1!$C$36:$G$37</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$44:$F$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
+              <c:f>MPI性能分析表1!$B$41:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.8</c:v>
+                <c:pt idx="2">
+                  <c:v>32.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,52 +3714,54 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>16个进程</c:v>
+            <c:v>16个线程</c:v>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet6!$B$39:$F$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>MPI性能分析表1!$C$36:$G$37</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$45:$F$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
+              <c:f>MPI性能分析表1!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.6</c:v>
+                <c:pt idx="2">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,21 +3778,46 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="239017344"/>
-        <c:axId val="239056000"/>
+        <c:axId val="149896576"/>
+        <c:axId val="149914752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="239017344"/>
+        <c:axId val="149896576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>计算精度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.77228587051618547"/>
+              <c:y val="0.85648148148148151"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239056000"/>
+        <c:crossAx val="149914752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2540,18 +3825,49 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239056000"/>
+        <c:axId val="149914752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.1842957130358705"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239017344"/>
+        <c:crossAx val="149896576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2587,9 +3903,42 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI I/O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>时间与数据规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1612661854768154"/>
+          <c:y val="0.15325240594925635"/>
+          <c:w val="0.59667825896762905"/>
+          <c:h val="0.71224919801691455"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2597,52 +3946,52 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>10万数据集</c:v>
+            <c:v>1个进程</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$41:$A$45</c:f>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$41:$B$45</c:f>
+              <c:f>MPI性能分析表2!$B$25:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>128.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>513.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1483.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2051.2999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2653,52 +4002,52 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>20万数据集</c:v>
+            <c:v>2个进程</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$41:$A$45</c:f>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$C$41:$C$45</c:f>
+              <c:f>MPI性能分析表2!$B$26:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5</c:v>
+                  <c:v>128.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>548.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1082.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,52 +4058,52 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>40万数据集</c:v>
+            <c:v>4个进程</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$41:$A$45</c:f>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$D$41:$D$45</c:f>
+              <c:f>MPI性能分析表2!$B$27:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8</c:v>
+                  <c:v>127.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>508.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1008.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2066.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,52 +4114,52 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>80万数据集</c:v>
+            <c:v>8个进程</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$41:$A$45</c:f>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$E$41:$E$45</c:f>
+              <c:f>MPI性能分析表2!$B$28:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>80.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4</c:v>
+                  <c:v>128.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>519.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1016.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2091.2000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,52 +4170,52 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>160万数据集</c:v>
+            <c:v>16个进程</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet6!$A$41:$A$45</c:f>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$F$41:$F$45</c:f>
+              <c:f>MPI性能分析表2!$B$29:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>161.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.6</c:v>
+                  <c:v>129.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>745.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1090.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2883,21 +4232,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="305123712"/>
-        <c:axId val="305126016"/>
+        <c:axId val="98262016"/>
+        <c:axId val="98321152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="305123712"/>
+        <c:axId val="98262016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.79827187226596674"/>
+              <c:y val="0.84259259259259256"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305126016"/>
+        <c:crossAx val="98321152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2905,18 +4280,49 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305126016"/>
+        <c:axId val="98321152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777776E-2"/>
+              <c:y val="0.12874015748031495"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305123712"/>
+        <c:crossAx val="98262016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2938,20 +4344,939 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间与数据规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11940507436570429"/>
+          <c:y val="0.13156616936040891"/>
+          <c:w val="0.65242825896762902"/>
+          <c:h val="0.74051422848459736"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$39:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$41:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$39:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$42:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$39:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$43:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$39:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$44:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$39:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$45:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="99327360"/>
+        <c:axId val="99333248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99327360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.79117475940507431"/>
+              <c:y val="0.91203703703703709"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99333248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99333248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777779E-3"/>
+              <c:y val="7.5430653405166442E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99327360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间与集群规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11940507436570429"/>
+          <c:y val="0.13936351706036745"/>
+          <c:w val="0.64390048118985121"/>
+          <c:h val="0.74465660542432199"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$41:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>20万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$C$41:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>40万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$D$41:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>80万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$E$41:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>160万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$41:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$F$41:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>161.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="99428224"/>
+        <c:axId val="99429760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99428224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>进程数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.8189663167104112"/>
+              <c:y val="0.87037037037037035"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99429760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99429760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.5555555555555558E-3"/>
+              <c:y val="0.10096237970253716"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99428224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76330555555555568"/>
+          <c:y val="0.29070683872849229"/>
+          <c:w val="0.22002777777777774"/>
+          <c:h val="0.41858595800524934"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2965,6 +5290,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3007,16 +5362,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3037,16 +5392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3065,6 +5420,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3072,16 +5457,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3102,16 +5487,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3132,20 +5517,115 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3450,20 +5930,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="35.25" customHeight="1">
       <c r="B1">
         <v>1</v>
       </c>
@@ -3480,7 +5960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3500,7 +5980,7 @@
         <v>33519</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -3520,7 +6000,7 @@
         <v>495656</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="20.25" customHeight="1">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -3540,28 +6020,28 @@
         <v>1419248</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="20.25" customHeight="1"/>
+    <row r="6" spans="1:6" ht="27">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>100000</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
+        <v>200000</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
+        <v>400000</v>
       </c>
       <c r="E6" s="3">
-        <v>8</v>
+        <v>800000</v>
       </c>
       <c r="F6" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -3581,7 +6061,7 @@
         <v>3351.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>0.1</v>
       </c>
@@ -3601,7 +6081,7 @@
         <v>49565.599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>0.01</v>
       </c>
@@ -3618,86 +6098,6 @@
         <v>74050.399999999994</v>
       </c>
       <c r="F9" s="4">
-        <v>141924.79999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3">
-        <v>100000</v>
-      </c>
-      <c r="C14" s="3">
-        <v>200000</v>
-      </c>
-      <c r="D14" s="3">
-        <v>400000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>800000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1600000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1398.4</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1888.9</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1909.3</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2377.1999999999998</v>
-      </c>
-      <c r="F15" s="4">
-        <v>3351.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="B16" s="4">
-        <v>8117.4</v>
-      </c>
-      <c r="C16" s="4">
-        <v>10951.9</v>
-      </c>
-      <c r="D16" s="4">
-        <v>15527.8</v>
-      </c>
-      <c r="E16" s="4">
-        <v>28090.3</v>
-      </c>
-      <c r="F16" s="4">
-        <v>49565.599999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="B17" s="4">
-        <v>20495.599999999999</v>
-      </c>
-      <c r="C17" s="4">
-        <v>25281</v>
-      </c>
-      <c r="D17" s="4">
-        <v>42860</v>
-      </c>
-      <c r="E17" s="4">
-        <v>74050.399999999994</v>
-      </c>
-      <c r="F17" s="4">
         <v>141924.79999999999</v>
       </c>
     </row>
@@ -3713,52 +6113,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="27">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="12">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9">
         <v>0.1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9">
         <v>0.01</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9">
         <v>1E-3</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9">
         <v>1E-4</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="27" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3823,7 +6223,7 @@
         <v>1.6539999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3888,7 +6288,7 @@
         <v>1.1592</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3953,7 +6353,7 @@
         <v>0.85980000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>8</v>
       </c>
@@ -4018,7 +6418,7 @@
         <v>0.67790000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>16</v>
       </c>
@@ -4083,7 +6483,7 @@
         <v>0.59559999999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4103,49 +6503,49 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19">
       <c r="K8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="13">
         <v>1</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <v>0.1</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <v>0.01</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
         <v>1E-3</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9">
         <v>1E-4</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7">
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="10" t="s">
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -4154,7 +6554,7 @@
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -4163,7 +6563,7 @@
       <c r="G10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -4172,7 +6572,7 @@
       <c r="J10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -4181,7 +6581,7 @@
       <c r="M10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -4190,7 +6590,7 @@
       <c r="P10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R10" s="6" t="s">
@@ -4200,783 +6600,801 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>516</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>9.7000000000000011</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>525.70000000000005</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>513.29999999999995</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>40.4</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>553.69999999999993</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>556.6</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>249.9</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>806.5</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <v>522.5</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <v>474.6</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <v>997.1</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <v>520.70000000000005</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="7">
         <v>724</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="7">
         <v>1244.6999999999998</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="7">
         <v>521.59999999999991</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="7">
         <v>1132.4000000000001</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="7">
         <v>1654</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>521.59999999999991</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>4.8</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>526.4</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>519.59999999999991</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>21.7</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>541.29999999999995</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>508</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>125.2</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>633.19999999999993</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <v>540</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <v>237</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="7">
         <v>777</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="7">
         <v>522.9</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="7">
         <v>305.09999999999997</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="7">
         <v>828.00000000000011</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="7">
         <v>511</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="7">
         <v>648.20000000000005</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="7">
         <v>1159.2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="13.5" customHeight="1">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>520.4</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>523.4</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <v>522.29999999999995</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>10.4</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <v>532.69999999999993</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="7">
         <v>539.29999999999995</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>62.8</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="7">
         <v>602.1</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
         <v>523</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="7">
         <v>119</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="7">
         <v>642</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="7">
         <v>531.90000000000009</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="7">
         <v>181.9</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="7">
         <v>713.8</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="7">
         <v>530.1</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="7">
         <v>329.7</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="7">
         <v>859.8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>517.80000000000007</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>1.3</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>519.1</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <v>508.4</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>5.3</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <v>513.69999999999993</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>522.59999999999991</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>32.099999999999994</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>554.69999999999993</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>529.29999999999995</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="7">
         <v>60.1</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="7">
         <v>589.40000000000009</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="7">
         <v>507</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="7">
         <v>93.899999999999991</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="7">
         <v>600.9</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="7">
         <v>520.80000000000007</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="7">
         <v>157.1</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="7">
         <v>677.90000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>16</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>514.1</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>0.7</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>514.80000000000007</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>517.5</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>2.8</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>520.29999999999995</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>518.1</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>16.2</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <v>534.29999999999995</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>546.20000000000005</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="7">
         <v>30.599999999999998</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="7">
         <v>576.79999999999995</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="7">
         <v>527.20000000000005</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="7">
         <v>46.6</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="7">
         <v>573.79999999999995</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="7">
         <v>523.59999999999991</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="7">
         <v>72</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="7">
         <v>595.59999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+    <row r="18" spans="1:17">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>1</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="9">
         <v>0.1</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="9">
         <v>0.01</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="9">
         <v>1E-4</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>516</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>513.29999999999995</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>556.6</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>522.5</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <v>520.70000000000005</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <v>521.59999999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>521.59999999999991</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>519.59999999999991</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>508</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>540</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <v>522.9</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <v>511</v>
       </c>
       <c r="Q22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>520.4</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>522.29999999999995</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>539.29999999999995</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>523</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <v>531.90000000000009</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="7">
         <v>530.1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <v>517.80000000000007</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>508.4</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>522.59999999999991</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>529.29999999999995</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <v>507</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="7">
         <v>520.80000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>16</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>514.1</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>517.5</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>518.1</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>546.20000000000005</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="7">
         <v>527.20000000000005</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
         <v>523.59999999999991</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>1</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="9">
         <v>0.1</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="9">
         <v>0.01</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="9">
         <v>1E-4</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
-      <c r="B37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="7">
         <v>9.7000000000000011</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="7">
         <v>40.4</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="7">
         <v>249.9</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="7">
         <v>474.6</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="7">
         <v>724</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="7">
         <v>1132.4000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="7">
         <v>4.8</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <v>21.7</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="7">
         <v>125.2</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="7">
         <v>237</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <v>305.09999999999997</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="7">
         <v>648.20000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>4</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="7">
         <v>3</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="7">
         <v>10.4</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="7">
         <v>62.8</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="7">
         <v>119</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="7">
         <v>181.9</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="7">
         <v>329.7</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="7">
         <v>1.3</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="7">
         <v>5.3</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <v>32.099999999999994</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="7">
         <v>60.1</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="7">
         <v>93.899999999999991</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="7">
         <v>157.1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>16</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="7">
         <v>0.7</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="7">
         <v>2.8</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="7">
         <v>16.2</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="7">
         <v>30.599999999999998</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="7">
         <v>46.6</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="7">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="12" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="12">
         <v>1</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="9">
         <v>0.1</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="9">
         <v>0.01</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="9">
         <v>1E-4</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="13"/>
-      <c r="B56" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="7">
         <v>525.70000000000005</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="7">
         <v>553.69999999999993</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="7">
         <v>806.5</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="7">
         <v>997.1</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="7">
         <v>1244.6999999999998</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="7">
         <v>1654</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>2</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="7">
         <v>526.4</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="7">
         <v>541.29999999999995</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="7">
         <v>633.19999999999993</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="7">
         <v>777</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="7">
         <v>828.00000000000011</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="7">
         <v>1159.2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>4</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="7">
         <v>523.4</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="7">
         <v>532.69999999999993</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="7">
         <v>602.1</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="7">
         <v>642</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="7">
         <v>713.8</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="7">
         <v>859.8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>8</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="7">
         <v>519.1</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="7">
         <v>513.69999999999993</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="7">
         <v>554.69999999999993</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="7">
         <v>589.40000000000009</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="7">
         <v>600.9</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="7">
         <v>677.90000000000009</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>16</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="7">
         <v>514.80000000000007</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="7">
         <v>520.29999999999995</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="7">
         <v>534.29999999999995</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="7">
         <v>576.79999999999995</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="7">
         <v>573.79999999999995</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="7">
         <v>595.59999999999991</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="37">
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A36:A37"/>
@@ -5004,14 +7422,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B1">
@@ -5030,8 +7451,8 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="11"/>
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -5063,7 +7484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5098,7 +7519,7 @@
         <v>0.1618</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5133,7 +7554,7 @@
         <v>8.1299999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5168,7 +7589,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>8</v>
       </c>
@@ -5203,7 +7624,7 @@
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>16</v>
       </c>
@@ -5238,8 +7659,8 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -5258,8 +7679,8 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -5291,7 +7712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5326,7 +7747,7 @@
         <v>161.80000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5361,7 +7782,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>4</v>
       </c>
@@ -5396,7 +7817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>8</v>
       </c>
@@ -5431,7 +7852,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>16</v>
       </c>
@@ -5466,45 +7887,45 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23">
+    <row r="22" spans="1:8" ht="24" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12">
         <v>100000</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="9">
         <v>200000</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="9">
         <v>400000</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="9">
         <v>800000</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="9">
         <v>1600000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5524,7 +7945,7 @@
         <v>2051.2999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2</v>
       </c>
@@ -5544,7 +7965,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5564,7 +7985,7 @@
         <v>2066.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>8</v>
       </c>
@@ -5584,7 +8005,7 @@
         <v>2091.2000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>16</v>
       </c>
@@ -5604,77 +8025,77 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="12" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="12">
         <v>100000</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="9">
         <v>200000</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="9">
         <v>400000</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="9">
         <v>800000</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="9">
         <v>1600000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5694,7 +8115,7 @@
         <v>161.80000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>2</v>
       </c>
@@ -5714,7 +8135,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>4</v>
       </c>
@@ -5734,7 +8155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>8</v>
       </c>
@@ -5754,7 +8175,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>16</v>
       </c>
@@ -5775,15 +8196,264 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="17">
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A32:H34"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="16">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="16">
+        <v>200000</v>
+      </c>
+      <c r="D2" s="16">
+        <v>400000</v>
+      </c>
+      <c r="E2" s="16">
+        <v>800000</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="17">
+        <f>8117.4</f>
+        <v>8117.4</v>
+      </c>
+      <c r="C3" s="17">
+        <v>10951.9</v>
+      </c>
+      <c r="D3" s="17">
+        <v>15527.8</v>
+      </c>
+      <c r="E3" s="17">
+        <v>28090.3</v>
+      </c>
+      <c r="F3" s="17">
+        <v>49565.599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="17">
+        <f>(0.1292+0.0008)*1000</f>
+        <v>130</v>
+      </c>
+      <c r="C4" s="17">
+        <f>255.2+1.5</f>
+        <v>256.7</v>
+      </c>
+      <c r="D4" s="17">
+        <f>725.7+2.8</f>
+        <v>728.5</v>
+      </c>
+      <c r="E4" s="17">
+        <f>1090.9+5.4</f>
+        <v>1096.3000000000002</v>
+      </c>
+      <c r="F4" s="17">
+        <f>2837+10.6</f>
+        <v>2847.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="17">
+        <f>B3/B4</f>
+        <v>62.441538461538457</v>
+      </c>
+      <c r="C5" s="17">
+        <f t="shared" ref="C5:F5" si="0">C3/C4</f>
+        <v>42.664199454616281</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="0"/>
+        <v>21.314756348661632</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
+        <v>25.622822220195197</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>17.406096361848576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>0.01</v>
+      </c>
+      <c r="E19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1909.3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>15527.8</v>
+      </c>
+      <c r="D20" s="7">
+        <v>42860</v>
+      </c>
+      <c r="E20" s="7">
+        <f>D20*2.7</f>
+        <v>115722.00000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7">
+        <f>514.1+0.7</f>
+        <v>514.80000000000007</v>
+      </c>
+      <c r="C21" s="7">
+        <f>517.5+2.8</f>
+        <v>520.29999999999995</v>
+      </c>
+      <c r="D21" s="7">
+        <f>518.1+16.2</f>
+        <v>534.30000000000007</v>
+      </c>
+      <c r="E21" s="7">
+        <f>546.2+30.6</f>
+        <v>576.80000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f>B20/B21</f>
+        <v>3.7088189588189584</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:E22" si="1">C20/C21</f>
+        <v>29.843936190659235</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>80.217106494478742</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>200.62760055478503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A23:E23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hadoop性能分析" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t xml:space="preserve">      数据量
   精度</t>
@@ -134,6 +134,10 @@
     <t>MPI 总时间与集群规模关系图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Hadoop计算时间与计算精度（数据规模）关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -286,11 +290,20 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
@@ -351,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +451,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hadoop性能分析!$B$6:$F$6</c:f>
+              <c:f>Hadoop性能分析!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -459,7 +475,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hadoop性能分析!$B$7:$F$7</c:f>
+              <c:f>Hadoop性能分析!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -491,7 +507,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hadoop性能分析!$B$6:$F$6</c:f>
+              <c:f>Hadoop性能分析!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -515,7 +531,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hadoop性能分析!$B$8:$F$8</c:f>
+              <c:f>Hadoop性能分析!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -547,7 +563,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hadoop性能分析!$B$6:$F$6</c:f>
+              <c:f>Hadoop性能分析!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -571,7 +587,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hadoop性能分析!$B$9:$F$9</c:f>
+              <c:f>Hadoop性能分析!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -1549,7 +1565,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hadoop性能分析!$A$7:$A$9</c:f>
+              <c:f>Hadoop性能分析!$A$8:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1567,7 +1583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hadoop性能分析!$B$7:$B$9</c:f>
+              <c:f>Hadoop性能分析!$B$8:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
@@ -1593,7 +1609,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hadoop性能分析!$A$7:$A$9</c:f>
+              <c:f>Hadoop性能分析!$A$8:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1611,7 +1627,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hadoop性能分析!$C$7:$C$9</c:f>
+              <c:f>Hadoop性能分析!$C$8:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
@@ -1637,7 +1653,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hadoop性能分析!$A$7:$A$9</c:f>
+              <c:f>Hadoop性能分析!$A$8:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1655,7 +1671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hadoop性能分析!$D$7:$D$9</c:f>
+              <c:f>Hadoop性能分析!$D$8:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
@@ -1681,7 +1697,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hadoop性能分析!$A$7:$A$9</c:f>
+              <c:f>Hadoop性能分析!$A$8:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1699,7 +1715,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hadoop性能分析!$E$7:$E$9</c:f>
+              <c:f>Hadoop性能分析!$E$8:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
@@ -1725,7 +1741,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Hadoop性能分析!$A$7:$A$9</c:f>
+              <c:f>Hadoop性能分析!$A$8:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1743,7 +1759,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hadoop性能分析!$F$7:$F$9</c:f>
+              <c:f>Hadoop性能分析!$F$8:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="3"/>
@@ -5269,13 +5285,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5299,13 +5315,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5930,10 +5946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6021,87 +6037,100 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1"/>
-    <row r="6" spans="1:6" ht="27">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" ht="27">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>100000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>200000</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <v>400000</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <v>800000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>1600000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1398.4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1888.9</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1909.3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2377.1999999999998</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3351.9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B8" s="4">
-        <v>8117.4</v>
+        <v>1398.4</v>
       </c>
       <c r="C8" s="4">
-        <v>10951.9</v>
+        <v>1888.9</v>
       </c>
       <c r="D8" s="4">
-        <v>15527.8</v>
+        <v>1909.3</v>
       </c>
       <c r="E8" s="4">
-        <v>28090.3</v>
+        <v>2377.1999999999998</v>
       </c>
       <c r="F8" s="4">
-        <v>49565.599999999999</v>
+        <v>3351.9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8117.4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10951.9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15527.8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>28090.3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>49565.599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>0.01</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <v>20495.599999999999</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="4">
         <v>25281</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D10" s="4">
         <v>42860</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>74050.399999999994</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>141924.79999999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6113,7 +6142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -7422,7 +7451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
@@ -8225,7 +8254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hadoop性能分析" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t xml:space="preserve">      数据量
   精度</t>
@@ -63,10 +63,6 @@
   <si>
     <t xml:space="preserve">      数据量
   进程数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I/O时间随着数据量的增大而增大，但是与集群规模关系比较少，与算法相关，不同算法可能会有很大的差异。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -326,6 +322,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -334,39 +349,20 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,11 +617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98684928"/>
-        <c:axId val="98686848"/>
+        <c:axId val="98488704"/>
+        <c:axId val="98490624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98684928"/>
+        <c:axId val="98488704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98686848"/>
+        <c:crossAx val="98490624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98686848"/>
+        <c:axId val="98490624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98684928"/>
+        <c:crossAx val="98488704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -743,6 +739,3792 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间的对数与集群规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15808573928258968"/>
+          <c:y val="0.18565981335666376"/>
+          <c:w val="0.51151137357830267"/>
+          <c:h val="0.67521216097987746"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>阈值精度：1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$B$38:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>阈值精度：0.1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$C$38:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>阈值精度：0.01</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$D$38:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>249.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>阈值精度：0.001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$E$38:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>474.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.599999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>阈值精度：0.0001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$F$38:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>阈值精度：0.00001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$38:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$G$38:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1132.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>329.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="171732352"/>
+        <c:axId val="171775488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="171732352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>进程数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.78867475940507425"/>
+              <c:y val="0.85648148148148151"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171775488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171775488"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间的对数（以</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>为底）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.2116982336667376"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171732352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>总时间的对数与集群规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13143285214348208"/>
+          <c:y val="0.12084499854184894"/>
+          <c:w val="0.53260870516185477"/>
+          <c:h val="0.73076771653543304"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>阈值精度：1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$B$81:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>525.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>526.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>523.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>519.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>514.80000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>阈值精度：0.1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$C$81:$C$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>553.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>541.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>532.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>513.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>520.29999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>阈值精度：0.01</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$D$81:$D$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>806.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>633.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>602.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>554.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>534.29999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>阈值精度：0.001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$E$81:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>997.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>589.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>576.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>阈值精度：0.0001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$F$81:$F$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1244.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>828.00000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>713.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>573.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>阈值精度：0.00001</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$G$81:$G$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1159.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>859.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>677.90000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595.59999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="81787520"/>
+        <c:axId val="81884672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="81787520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>进程数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.68023031496062991"/>
+              <c:y val="0.84259259259259256"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81884672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81884672"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间的对数（以</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>为底）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81787520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI I/O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>时间与数据规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1612661854768154"/>
+          <c:y val="0.15325240594925635"/>
+          <c:w val="0.59667825896762905"/>
+          <c:h val="0.71224919801691455"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>513.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1483.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2051.2999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>548.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1082.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>127.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>508.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1008.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2066.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>519.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1016.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2091.2000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>129.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>745.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1090.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="99695232"/>
+        <c:axId val="99701504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99695232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.79827187226596674"/>
+              <c:y val="0.84259259259259256"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99701504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99701504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777776E-2"/>
+              <c:y val="0.12874015748031495"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99695232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间与数据规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11940507436570429"/>
+          <c:y val="0.13156616936040891"/>
+          <c:w val="0.65242825896762902"/>
+          <c:h val="0.74051422848459736"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$55:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$56:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$57:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$58:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="99617024"/>
+        <c:axId val="99627392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99617024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.79117475940507431"/>
+              <c:y val="0.91203703703703709"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99627392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99627392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7777777777777779E-3"/>
+              <c:y val="7.5430653405166442E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99617024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间与集群规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11940507436570429"/>
+          <c:y val="0.13936351706036745"/>
+          <c:w val="0.64390048118985121"/>
+          <c:h val="0.74465660542432199"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$55:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$55:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>20万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$55:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$C$55:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>40万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$55:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$D$55:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>80万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$55:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$E$55:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>160万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$55:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$F$55:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>161.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="99155968"/>
+        <c:axId val="99157888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99155968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>进程数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.8189663167104112"/>
+              <c:y val="0.87037037037037035"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99157888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99157888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.5555555555555558E-3"/>
+              <c:y val="0.10096237970253716"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99155968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76330555555555568"/>
+          <c:y val="0.29070683872849229"/>
+          <c:w val="0.22002777777777774"/>
+          <c:h val="0.41858595800524934"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI I/O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>时间的对数与数据规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1612661854768154"/>
+          <c:y val="0.15325240594925635"/>
+          <c:w val="0.59667825896762905"/>
+          <c:h val="0.71224919801691455"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>513.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1483.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2051.2999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>548.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1082.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>127.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>508.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1008.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2066.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>257.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>519.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1016.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2091.2000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>129.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>745.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1090.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="151369984"/>
+        <c:axId val="171813504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151369984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.79827187226596674"/>
+              <c:y val="0.84259259259259256"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171813504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171813504"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间的对数（以</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>为底）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.3333333333333333E-2"/>
+              <c:y val="0.18613512714884151"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151369984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间的对数与数据规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1416272965879265"/>
+          <c:y val="0.13156616936040891"/>
+          <c:w val="0.65242825896762902"/>
+          <c:h val="0.74051422848459736"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$55:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.80000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$56:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$57:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$58:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16个进程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$53:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="81183488"/>
+        <c:axId val="81185408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="81183488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.79117475940507431"/>
+              <c:y val="0.91203703703703709"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81185408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81185408"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间的对数（以</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>为底）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1111111111111112E-2"/>
+              <c:y val="0.12806223235253489"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81183488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间的对数与集群规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11940507436570429"/>
+          <c:y val="0.13936351706036745"/>
+          <c:w val="0.64390048118985121"/>
+          <c:h val="0.74465660542432199"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$55:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$B$55:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>20万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$55:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$C$55:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>40万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$55:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$D$55:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>80万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$55:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$E$55:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>160万数据集</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$A$55:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表2!$F$55:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>161.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="46299392"/>
+        <c:axId val="64678144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="46299392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>进程数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.8189663167104112"/>
+              <c:y val="0.87037037037037035"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64678144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64678144"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间的对数（以</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>为底）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.5555555555555558E-3"/>
+              <c:y val="0.10096237970253716"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46299392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76330555555555568"/>
+          <c:y val="0.29070683872849229"/>
+          <c:w val="0.22002777777777774"/>
+          <c:h val="0.41858595800524934"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -922,11 +4704,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104589184"/>
-        <c:axId val="104590720"/>
+        <c:axId val="99179904"/>
+        <c:axId val="99194368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104589184"/>
+        <c:axId val="99179904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +4744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104590720"/>
+        <c:crossAx val="99194368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -970,7 +4752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104590720"/>
+        <c:axId val="99194368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50000"/>
@@ -982,7 +4764,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104589184"/>
+        <c:crossAx val="99179904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1037,7 +4819,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1110,7 +4892,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hadoop与MPI计算时间比较!$B$19:$E$19</c:f>
+              <c:f>Hadoop与MPI计算时间比较!$B$29:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1131,7 +4913,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hadoop与MPI计算时间比较!$B$22:$E$22</c:f>
+              <c:f>Hadoop与MPI计算时间比较!$B$32:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1162,11 +4944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180266112"/>
-        <c:axId val="180267648"/>
+        <c:axId val="99313536"/>
+        <c:axId val="99315712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180266112"/>
+        <c:axId val="99313536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +4984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180267648"/>
+        <c:crossAx val="99315712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1210,7 +4992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180267648"/>
+        <c:axId val="99315712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,242 +5029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180266112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
-              <a:t>Hadoop</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-              <a:t>与</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
-              <a:t>MPI</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-              <a:t>计算时间比率图</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="en-US" sz="1200"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.26984711286089241"/>
-          <c:y val="3.7037037037037035E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Hadoop/MPI</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Hadoop与MPI计算时间比较!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hadoop与MPI计算时间比较!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>62.441538461538457</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.664199454616281</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.314756348661632</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.622822220195197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.406096361848576</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="180856704"/>
-        <c:axId val="180858240"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="180856704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>数据规模</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.75054943132108498"/>
-              <c:y val="0.84722222222222221"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180858240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="180858240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>比率</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.2222222222222223E-2"/>
-              <c:y val="0.16196959755030618"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180856704"/>
+        <c:crossAx val="99313536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1787,11 +5334,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104743680"/>
-        <c:axId val="149111936"/>
+        <c:axId val="98551680"/>
+        <c:axId val="99024896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104743680"/>
+        <c:axId val="98551680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +5374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149111936"/>
+        <c:crossAx val="99024896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1835,7 +5382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149111936"/>
+        <c:axId val="99024896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +5417,242 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104743680"/>
+        <c:crossAx val="98551680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
+              <a:t>Hadoop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>与</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US" sz="1200"/>
+              <a:t>MPI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间比率图</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26984711286089241"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hadoop/MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop与MPI计算时间比较!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop与MPI计算时间比较!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>62.441538461538457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.664199454616281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.314756348661632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.622822220195197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.406096361848576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="99336576"/>
+        <c:axId val="99338496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99336576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.75054943132108498"/>
+              <c:y val="0.84722222222222221"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99338496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99338496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>比率</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.16196959755030618"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99336576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1893,6 +5675,770 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>Hadoop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间的对数与数据规模关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18062489063867013"/>
+          <c:y val="5.4982837706104466E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19848840769903764"/>
+          <c:y val="0.24150093045103965"/>
+          <c:w val="0.51594203849518805"/>
+          <c:h val="0.52220094423282704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>阈值精度：1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1398.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1888.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1909.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2377.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3351.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>阈值精度：0.1</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8117.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10951.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15527.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28090.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49565.599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>阈值精度：0.011</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20495.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74050.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141924.79999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="85792256"/>
+        <c:axId val="85793792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85792256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.7756259842519686"/>
+              <c:y val="0.78923245545993292"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85793792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85793792"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1024"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间对数（以</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>为底）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.3333333333333333E-2"/>
+              <c:y val="9.3059174377131765E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85792256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71165266841644803"/>
+          <c:y val="0.42750563357618621"/>
+          <c:w val="0.28556955380577426"/>
+          <c:h val="0.24856247298661435"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>Hadoop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算计算时间的对数与计算精度关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20979396325459318"/>
+          <c:y val="0.19309055118110235"/>
+          <c:w val="0.42217825896762906"/>
+          <c:h val="0.61685549722951294"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>数据规模：100000</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$A$8:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$B$8:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1398.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8117.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20495.599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>数据规模：200000</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$A$8:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1888.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10951.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>数据规模：400000</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$A$8:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$D$8:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1909.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15527.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42860</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>数据规模：800000</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$A$8:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$E$8:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2377.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28090.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74050.399999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>数据规模：1600000</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$A$8:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hadoop性能分析!$F$8:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3351.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49565.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141924.79999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="103666432"/>
+        <c:axId val="103999744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="103666432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>计算精度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.67189698162729661"/>
+              <c:y val="0.81944444444444442"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103999744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103999744"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1024"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间对数（以</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>为底）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.6111111111111108E-2"/>
+              <c:y val="0.17165718868474775"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103666432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2298,11 +6844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99010816"/>
-        <c:axId val="99020800"/>
+        <c:axId val="99070720"/>
+        <c:axId val="99072640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99010816"/>
+        <c:axId val="99070720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +6884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99020800"/>
+        <c:crossAx val="99072640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2346,7 +6892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99020800"/>
+        <c:axId val="99072640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,7 +6934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99010816"/>
+        <c:crossAx val="99070720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2419,7 +6965,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2818,11 +7364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98913664"/>
-        <c:axId val="98919552"/>
+        <c:axId val="99398400"/>
+        <c:axId val="99400320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98913664"/>
+        <c:axId val="99398400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2858,7 +7404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98919552"/>
+        <c:crossAx val="99400320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2866,7 +7412,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98919552"/>
+        <c:axId val="99400320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +7454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98913664"/>
+        <c:crossAx val="99398400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2930,7 +7476,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2991,7 +7537,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3015,7 +7561,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MPI性能分析表1!$B$57:$B$61</c:f>
+              <c:f>MPI性能分析表1!$B$81:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -3047,7 +7593,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3071,7 +7617,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MPI性能分析表1!$C$57:$C$61</c:f>
+              <c:f>MPI性能分析表1!$C$81:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -3103,7 +7649,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3127,7 +7673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MPI性能分析表1!$D$57:$D$61</c:f>
+              <c:f>MPI性能分析表1!$D$81:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -3159,7 +7705,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3183,7 +7729,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MPI性能分析表1!$E$57:$E$61</c:f>
+              <c:f>MPI性能分析表1!$E$81:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -3215,7 +7761,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3239,7 +7785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MPI性能分析表1!$F$57:$F$61</c:f>
+              <c:f>MPI性能分析表1!$F$81:$F$85</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -3271,7 +7817,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>MPI性能分析表1!$A$57:$A$61</c:f>
+              <c:f>MPI性能分析表1!$A$81:$A$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3295,7 +7841,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MPI性能分析表1!$G$57:$G$61</c:f>
+              <c:f>MPI性能分析表1!$G$81:$G$85</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -3329,11 +7875,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99549952"/>
-        <c:axId val="99551488"/>
+        <c:axId val="99437568"/>
+        <c:axId val="99456128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99549952"/>
+        <c:axId val="99437568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,7 +7915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99551488"/>
+        <c:crossAx val="99456128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3377,7 +7923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99551488"/>
+        <c:axId val="99456128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3412,7 +7958,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99549952"/>
+        <c:crossAx val="99437568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3434,7 +7980,493 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>MPI </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>计算时间的对数与计算精度关系图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24405555555555561"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15643285214348207"/>
+          <c:y val="0.14399314668999708"/>
+          <c:w val="0.64337270341207353"/>
+          <c:h val="0.74002697579469234"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1个线程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPI性能分析表1!$C$36:$G$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$B$38:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>474.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1132.4000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2个线程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPI性能分析表1!$C$36:$G$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$B$39:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305.09999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>648.20000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4个线程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPI性能分析表1!$C$36:$G$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$B$40:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>329.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8个线程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPI性能分析表1!$C$36:$G$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$B$41:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>16个线程</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>MPI性能分析表1!$C$36:$G$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MPI性能分析表1!$B$42:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="99558528"/>
+        <c:axId val="99560448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="99558528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>计算精度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.80284142607174103"/>
+              <c:y val="0.7952329280394721"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99560448"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99560448"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间的对数（以</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>为底）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.21256429518748318"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99558528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79961111111111116"/>
+          <c:y val="0.17064893390093025"/>
+          <c:w val="0.19483333333333333"/>
+          <c:h val="0.42598146963078376"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3794,11 +8826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149896576"/>
-        <c:axId val="149914752"/>
+        <c:axId val="171907328"/>
+        <c:axId val="65024384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149896576"/>
+        <c:axId val="171907328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +8865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149914752"/>
+        <c:crossAx val="65024384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3841,7 +8873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149914752"/>
+        <c:axId val="65024384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3883,7 +8915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149896576"/>
+        <c:crossAx val="171907328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3891,1380 +8923,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-              <a:t>MPI I/O</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-              <a:t>时间与数据规模关系图</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1612661854768154"/>
-          <c:y val="0.15325240594925635"/>
-          <c:w val="0.59667825896762905"/>
-          <c:h val="0.71224919801691455"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1个进程</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$25:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>128.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>513.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1483.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2051.2999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2个进程</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$26:$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>128.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>257.40000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>548.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1082.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2214</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>4个进程</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$27:$F$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>127.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>264.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>508.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1008.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2066.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>8个进程</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$28:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>128.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>257.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>519.80000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1016.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2091.2000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>16个进程</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$23:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$29:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>129.20000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>255.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>745.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1090.9000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2837</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="98262016"/>
-        <c:axId val="98321152"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="98262016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>数据规模</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.79827187226596674"/>
-              <c:y val="0.84259259259259256"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98321152"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="98321152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>时间</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.7777777777777776E-2"/>
-              <c:y val="0.12874015748031495"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98262016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-              <a:t>MPI </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-              <a:t>计算时间与数据规模关系图</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11940507436570429"/>
-          <c:y val="0.13156616936040891"/>
-          <c:w val="0.65242825896762902"/>
-          <c:h val="0.74051422848459736"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1个进程</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$39:$F$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$41:$F$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>161.80000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2个进程</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$39:$F$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$42:$F$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>81.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>4个进程</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$39:$F$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$43:$F$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>8个进程</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$39:$F$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$44:$F$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>16个进程</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$39:$F$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$45:$F$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="99327360"/>
-        <c:axId val="99333248"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="99327360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>数据规模</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.79117475940507431"/>
-              <c:y val="0.91203703703703709"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99333248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="99333248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>时间</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.7777777777777779E-3"/>
-              <c:y val="7.5430653405166442E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99327360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-              <a:t>MPI</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-              <a:t>计算时间与集群规模关系图</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11940507436570429"/>
-          <c:y val="0.13936351706036745"/>
-          <c:w val="0.64390048118985121"/>
-          <c:h val="0.74465660542432199"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>10万数据集</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$A$41:$A$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$B$41:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>20万数据集</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$A$41:$A$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$C$41:$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>20.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>40万数据集</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$A$41:$A$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$D$41:$D$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>40.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>80万数据集</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$A$41:$A$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$E$41:$E$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>80.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>160万数据集</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$A$41:$A$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MPI性能分析表2!$F$41:$F$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>161.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="99428224"/>
-        <c:axId val="99429760"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="99428224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>进程数</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.8189663167104112"/>
-              <c:y val="0.87037037037037035"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99429760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="99429760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>时间</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="5.5555555555555558E-3"/>
-              <c:y val="0.10096237970253716"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99428224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.76330555555555568"/>
-          <c:y val="0.29070683872849229"/>
-          <c:w val="0.22002777777777774"/>
-          <c:h val="0.41858595800524934"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5315,14 +8973,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5336,6 +8994,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5378,16 +9096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5408,16 +9126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5438,16 +9156,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5466,6 +9184,102 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5473,16 +9287,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5505,13 +9319,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5535,13 +9349,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5561,6 +9375,102 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5568,16 +9478,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5600,13 +9510,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5628,16 +9538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5948,8 +9858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6038,14 +9948,14 @@
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1"/>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="A6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="27">
       <c r="A7" s="1" t="s">
@@ -6140,10 +10050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6156,36 +10066,36 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="16">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15">
         <v>0.1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15">
         <v>0.01</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15">
         <v>1E-3</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15">
         <v>1E-4</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1">
       <c r="A2">
@@ -6538,42 +10448,42 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="19">
         <v>1</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15">
         <v>0.1</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15">
         <v>0.01</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15">
         <v>1E-3</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15">
         <v>1E-4</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="11"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
@@ -6925,47 +10835,47 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="16">
         <v>1</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="15">
         <v>0.1</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="15">
         <v>0.01</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="15">
         <v>1E-4</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21">
@@ -7086,47 +10996,47 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="16">
         <v>1</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="15">
         <v>0.1</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="15">
         <v>0.01</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="15">
         <v>1E-4</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
@@ -7243,173 +11153,182 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+    <row r="78" spans="1:7">
+      <c r="A78" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="10" t="s">
+    <row r="79" spans="1:7">
+      <c r="A79" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B79" s="16">
         <v>1</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C79" s="15">
         <v>0.1</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D79" s="15">
         <v>0.01</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E79" s="15">
         <v>1E-3</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F79" s="15">
         <v>1E-4</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G79" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+    <row r="80" spans="1:7">
+      <c r="A80" s="18"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
+    <row r="81" spans="1:7">
+      <c r="A81">
         <v>1</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B81" s="7">
         <v>525.70000000000005</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C81" s="7">
         <v>553.69999999999993</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D81" s="7">
         <v>806.5</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E81" s="7">
         <v>997.1</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F81" s="7">
         <v>1244.6999999999998</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G81" s="7">
         <v>1654</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
+    <row r="82" spans="1:7">
+      <c r="A82">
         <v>2</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B82" s="7">
         <v>526.4</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C82" s="7">
         <v>541.29999999999995</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D82" s="7">
         <v>633.19999999999993</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E82" s="7">
         <v>777</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F82" s="7">
         <v>828.00000000000011</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G82" s="7">
         <v>1159.2</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
+    <row r="83" spans="1:7">
+      <c r="A83">
         <v>4</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B83" s="7">
         <v>523.4</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C83" s="7">
         <v>532.69999999999993</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D83" s="7">
         <v>602.1</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E83" s="7">
         <v>642</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F83" s="7">
         <v>713.8</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G83" s="7">
         <v>859.8</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
+    <row r="84" spans="1:7">
+      <c r="A84">
         <v>8</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B84" s="7">
         <v>519.1</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C84" s="7">
         <v>513.69999999999993</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D84" s="7">
         <v>554.69999999999993</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E84" s="7">
         <v>589.40000000000009</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F84" s="7">
         <v>600.9</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G84" s="7">
         <v>677.90000000000009</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
+    <row r="85" spans="1:7">
+      <c r="A85">
         <v>16</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B85" s="7">
         <v>514.80000000000007</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C85" s="7">
         <v>520.29999999999995</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D85" s="7">
         <v>534.29999999999995</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E85" s="7">
         <v>576.79999999999995</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F85" s="7">
         <v>573.79999999999995</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G85" s="7">
         <v>595.59999999999991</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="B36:B37"/>
@@ -7424,22 +11343,13 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7449,10 +11359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7461,7 +11371,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B1">
@@ -7481,7 +11391,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="11"/>
+      <c r="A2" s="18"/>
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -7689,7 +11599,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -7709,7 +11619,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="11"/>
+      <c r="A11" s="18"/>
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -7917,42 +11827,42 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="A22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="A23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="16">
         <v>100000</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="15">
         <v>200000</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="15">
         <v>400000</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="15">
         <v>800000</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="15">
         <v>1600000</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
@@ -8055,182 +11965,175 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="10" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B53" s="16">
         <v>100000</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C53" s="15">
         <v>200000</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D53" s="15">
         <v>400000</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E53" s="15">
         <v>800000</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F53" s="15">
         <v>1600000</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+    <row r="54" spans="1:6">
+      <c r="A54" s="18"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
+    <row r="55" spans="1:6">
+      <c r="A55">
         <v>1</v>
       </c>
-      <c r="B41">
+      <c r="B55">
         <v>10.3</v>
       </c>
-      <c r="C41">
+      <c r="C55">
         <v>20.299999999999997</v>
       </c>
-      <c r="D41">
+      <c r="D55">
         <v>40.700000000000003</v>
       </c>
-      <c r="E41">
+      <c r="E55">
         <v>80.400000000000006</v>
       </c>
-      <c r="F41">
+      <c r="F55">
         <v>161.80000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
+    <row r="56" spans="1:6">
+      <c r="A56">
         <v>2</v>
       </c>
-      <c r="B42">
+      <c r="B56">
         <v>5.2</v>
       </c>
-      <c r="C42">
+      <c r="C56">
         <v>10.200000000000001</v>
       </c>
-      <c r="D42">
+      <c r="D56">
         <v>20.299999999999997</v>
       </c>
-      <c r="E42">
+      <c r="E56">
         <v>40.4</v>
       </c>
-      <c r="F42">
+      <c r="F56">
         <v>81.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
+    <row r="57" spans="1:6">
+      <c r="A57">
         <v>4</v>
       </c>
-      <c r="B43">
+      <c r="B57">
         <v>2.6</v>
       </c>
-      <c r="C43">
+      <c r="C57">
         <v>5.2</v>
       </c>
-      <c r="D43">
+      <c r="D57">
         <v>10.3</v>
       </c>
-      <c r="E43">
+      <c r="E57">
         <v>20.400000000000002</v>
       </c>
-      <c r="F43">
+      <c r="F57">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
+    <row r="58" spans="1:6">
+      <c r="A58">
         <v>8</v>
       </c>
-      <c r="B44">
+      <c r="B58">
         <v>1.4</v>
       </c>
-      <c r="C44">
+      <c r="C58">
         <v>2.7</v>
       </c>
-      <c r="D44">
+      <c r="D58">
         <v>5.3</v>
       </c>
-      <c r="E44">
+      <c r="E58">
         <v>10.4</v>
       </c>
-      <c r="F44">
+      <c r="F58">
         <v>20.8</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
+    <row r="59" spans="1:6">
+      <c r="A59">
         <v>16</v>
       </c>
-      <c r="B45">
+      <c r="B59">
         <v>0.8</v>
       </c>
-      <c r="C45">
+      <c r="C59">
         <v>1.5</v>
       </c>
-      <c r="D45">
+      <c r="D59">
         <v>2.8</v>
       </c>
-      <c r="E45">
+      <c r="E59">
         <v>5.4</v>
       </c>
-      <c r="F45">
+      <c r="F59">
         <v>10.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A32:H34"/>
-    <mergeCell ref="A39:A40"/>
+  <mergeCells count="16">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="B23:B24"/>
@@ -8238,11 +12141,15 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8252,10 +12159,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8268,217 +12175,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="16">
+      <c r="A2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9">
         <v>100000</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="9">
         <v>200000</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="9">
         <v>400000</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="9">
         <v>800000</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="9">
         <v>1600000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10">
         <f>8117.4</f>
         <v>8117.4</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="10">
         <v>10951.9</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="10">
         <v>15527.8</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="10">
         <v>28090.3</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="10">
         <v>49565.599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10">
         <f>(0.1292+0.0008)*1000</f>
         <v>130</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="10">
         <f>255.2+1.5</f>
         <v>256.7</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="10">
         <f>725.7+2.8</f>
         <v>728.5</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="10">
         <f>1090.9+5.4</f>
         <v>1096.3000000000002</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="10">
         <f>2837+10.6</f>
         <v>2847.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10">
         <f>B3/B4</f>
         <v>62.441538461538457</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="10">
         <f t="shared" ref="C5:F5" si="0">C3/C4</f>
         <v>42.664199454616281</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>21.314756348661632</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>25.622822220195197</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>17.406096361848576</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
+    <row r="29" spans="1:5">
+      <c r="A29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C29">
         <v>0.1</v>
       </c>
-      <c r="D19">
+      <c r="D29">
         <v>0.01</v>
       </c>
-      <c r="E19">
+      <c r="E29">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="20" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1909.3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>15527.8</v>
+      </c>
+      <c r="D30" s="7">
+        <v>42860</v>
+      </c>
+      <c r="E30" s="7">
+        <f>D30*2.7</f>
+        <v>115722.00000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="7">
-        <v>1909.3</v>
-      </c>
-      <c r="C20" s="7">
-        <v>15527.8</v>
-      </c>
-      <c r="D20" s="7">
-        <v>42860</v>
-      </c>
-      <c r="E20" s="7">
-        <f>D20*2.7</f>
-        <v>115722.00000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="B31" s="7">
         <f>514.1+0.7</f>
         <v>514.80000000000007</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C31" s="7">
         <f>517.5+2.8</f>
         <v>520.29999999999995</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D31" s="7">
         <f>518.1+16.2</f>
         <v>534.30000000000007</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E31" s="7">
         <f>546.2+30.6</f>
         <v>576.80000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <f>B20/B21</f>
+    <row r="32" spans="1:5">
+      <c r="A32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <f>B30/B31</f>
         <v>3.7088189588189584</v>
       </c>
-      <c r="C22">
-        <f t="shared" ref="C22:E22" si="1">C20/C21</f>
+      <c r="C32">
+        <f t="shared" ref="C32:E32" si="1">C30/C31</f>
         <v>29.843936190659235</v>
       </c>
-      <c r="D22">
+      <c r="D32">
         <f t="shared" si="1"/>
         <v>80.217106494478742</v>
       </c>
-      <c r="E22">
+      <c r="E32">
         <f t="shared" si="1"/>
         <v>200.62760055478503</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hadoop性能分析" sheetId="2" r:id="rId1"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MPI I/O时间与集群规模关系图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MPI 计算时间与集群精度（规模）关系表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>Hadoop计算时间与计算精度（数据规模）关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPI I/O时间与集群规模关系表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5850,7 +5850,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>阈值精度：0.011</c:v>
+            <c:v>阈值精度：0.001</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
@@ -6067,7 +6067,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
-              <a:t>计算计算时间的对数与计算精度关系图</a:t>
+              <a:t>计算时间的对数与计算精度关系图</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9858,8 +9858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9949,7 +9949,7 @@
     <row r="5" spans="1:6" ht="20.25" customHeight="1"/>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -10052,8 +10052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10836,7 +10836,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -11155,7 +11155,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -11361,7 +11361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
@@ -12161,7 +12161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
